--- a/doc/Consumer_BZ.xlsx
+++ b/doc/Consumer_BZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>BZ1</t>
   </si>
@@ -297,12 +297,78 @@
   <si>
     <t>Automatic modus</t>
   </si>
+  <si>
+    <t>Betrieb</t>
+  </si>
+  <si>
+    <t>Ambient condition</t>
+  </si>
+  <si>
+    <t>geregelt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>immer an</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>kleine Drehzahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nur wenn die Spindel  - 5min läuft nach </t>
+  </si>
+  <si>
+    <t>Anteil an Gesamt</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Späneförderer</t>
+  </si>
+  <si>
+    <t>STANDBY / EINRICHT</t>
+  </si>
+  <si>
+    <t>+5min Nachlauf</t>
+  </si>
+  <si>
+    <t>+10s</t>
+  </si>
+  <si>
+    <t>Maschine in Prozess</t>
+  </si>
+  <si>
+    <t>CYCLE Antriebswelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellung Temperaturverlauf NDM200 / Dauerlauf / </t>
+  </si>
+  <si>
+    <t>periodisch alle 38s / läuft 36s</t>
+  </si>
+  <si>
+    <t>Druckluft - Sperrluft</t>
+  </si>
+  <si>
+    <t>Druckluft - Kühlung</t>
+  </si>
+  <si>
+    <t>CONST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +407,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +434,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -472,11 +569,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -532,6 +666,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="75"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1708,20 +1863,586 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="3"/>
+      <c r="C2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="3"/>
+      <c r="C3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3"/>
+      <c r="C4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="3"/>
+      <c r="C5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="3"/>
+      <c r="C6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="3"/>
+      <c r="C7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="3"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="3"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="3"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="3"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="3"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="3"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="3"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="3"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="3"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="3"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="36"/>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="36"/>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="36"/>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="36"/>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="G36" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="X39" s="29"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="B46" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+    </row>
+    <row r="49" spans="2:25">
+      <c r="B49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="30"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+    </row>
+    <row r="52" spans="2:25">
+      <c r="B52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="2:25">
+      <c r="B53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A35:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
